--- a/template_examples/cytof_e4412_template.xlsx
+++ b/template_examples/cytof_e4412_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Information" sheetId="1" state="visible" r:id="rId2"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6230" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6231" uniqueCount="118">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -547,7 +547,7 @@
     <t xml:space="preserve">Raw fcs filename(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">batch1f1.fcs,batch1f2.fcs</t>
+    <t xml:space="preserve">batch1f1.fcs</t>
   </si>
   <si>
     <t xml:space="preserve">Acquisition buffer</t>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t xml:space="preserve">FOOBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing a participant note</t>
   </si>
   <si>
     <t xml:space="preserve">control1.fcs</t>
@@ -1114,11 +1117,11 @@
   </sheetPr>
   <dimension ref="A1:J2011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -1269,20 +1272,23 @@
       <c r="C12" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,25 +1296,25 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11325,11 +11331,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -11351,11 +11357,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11367,7 +11373,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
@@ -11393,22 +11399,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11416,22 +11422,22 @@
         <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11439,22 +11445,22 @@
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21466,11 +21472,11 @@
   </sheetPr>
   <dimension ref="A1:J2002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -21480,7 +21486,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -21496,31 +21502,31 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21528,31 +21534,31 @@
         <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>3983272</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21560,31 +21566,31 @@
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1231272</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31613,19 +31619,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31633,10 +31639,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31644,10 +31650,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31655,10 +31661,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31666,13 +31672,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31680,10 +31686,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31691,10 +31697,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31702,40 +31708,40 @@
         <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31743,15 +31749,15 @@
         <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31759,10 +31765,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31770,10 +31776,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31781,10 +31787,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31792,10 +31798,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31803,10 +31809,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31814,28 +31820,28 @@
         <v>28</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31843,15 +31849,15 @@
         <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31859,10 +31865,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31870,10 +31876,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31881,10 +31887,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31892,10 +31898,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31903,125 +31909,125 @@
         <v>28</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -32047,7 +32053,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -32057,10 +32063,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32068,34 +32074,34 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/cytof_e4412_template.xlsx
+++ b/template_examples/cytof_e4412_template.xlsx
@@ -1118,10 +1118,10 @@
   <dimension ref="A1:J2011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -11331,11 +11331,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -21476,7 +21476,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -31619,7 +31619,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -32053,7 +32053,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
